--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -27,19 +27,52 @@
     <t>aaaaaa</t>
   </si>
   <si>
-    <t>bbbb</t>
+    <t>4f</t>
   </si>
   <si>
     <t>aaccc</t>
   </si>
   <si>
+    <t>4efd</t>
+  </si>
+  <si>
+    <t>aaccc456</t>
+  </si>
+  <si>
+    <t>16测试</t>
+  </si>
+  <si>
+    <t>aaccc987</t>
+  </si>
+  <si>
+    <t>aaccc3</t>
+  </si>
+  <si>
+    <t>18ceshi</t>
+  </si>
+  <si>
+    <t>aaaaaa15</t>
+  </si>
+  <si>
+    <t>19bcd</t>
+  </si>
+  <si>
     <t>aaddda</t>
   </si>
   <si>
+    <t>20测试用例</t>
+  </si>
+  <si>
+    <t>aeeeea2</t>
+  </si>
+  <si>
+    <t>22测试用例aa</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
     <t>aeeeea</t>
-  </si>
-  <si>
-    <t>fffff</t>
   </si>
 </sst>
 </file>
@@ -47,12 +80,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,30 +102,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,109 +193,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +253,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,37 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,121 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,18 +460,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,7 +499,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -512,153 +527,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1043,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1047,83 +1073,83 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>3</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>4</v>
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1179,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1195,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1203,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
